--- a/Blogs_Template.xlsx
+++ b/Blogs_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang Yu Cheng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My\st-school-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -118,6 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,15 +403,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="42.42578125" customWidth="1"/>
+    <col min="1" max="2" width="42.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -430,7 +431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90">
+    <row r="2" spans="1:5" ht="87">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -447,14 +448,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="120">
+    <row r="3" spans="1:5" ht="101.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -467,8 +468,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>